--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/28/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/28/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2282282282282282</v>
+        <v>0.9517951795179518</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1811.811811811812</v>
+        <v>1937.673767376738</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0974974974974975</v>
+        <v>0.05846584658465847</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5575575575575575</v>
+        <v>0.5691569156915691</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1771.771771771772</v>
+        <v>1297.499749974997</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.0930930930931</v>
+        <v>870.3870387038704</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>696.6966966966968</v>
+        <v>979.6183618361836</v>
       </c>
     </row>
   </sheetData>
